--- a/2025/11/2025-11-12/12_combined_confidence.xlsx
+++ b/2025/11/2025-11-12/12_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,31 +493,6 @@
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tunisia  - Mauritania: 16:30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>87</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
